--- a/Manual Tasks/jpeg_bild_MAPPING.xlsx
+++ b/Manual Tasks/jpeg_bild_MAPPING.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20375"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richter122\git-projects\openehr_flat_loader\Manual Tasks\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E89D62E-1582-44C3-8608-CCC4D6F150DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping CSV2openEHR" sheetId="1" r:id="rId1"/>
     <sheet name="FLAT_Paths" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>FLAT-Path</t>
   </si>
@@ -170,6 +164,9 @@
     <t>category_value</t>
   </si>
   <si>
+    <t>ISO_3166-1</t>
+  </si>
+  <si>
     <t>territory_term</t>
   </si>
   <si>
@@ -185,13 +182,13 @@
     <t>composer_name</t>
   </si>
   <si>
-    <t>unknown</t>
+    <t>openehr</t>
   </si>
   <si>
     <t>encoding_term</t>
   </si>
   <si>
-    <t>base64</t>
+    <t>image/jpeg</t>
   </si>
   <si>
     <t>encoding</t>
@@ -233,24 +230,18 @@
     <t>alternatetext</t>
   </si>
   <si>
-    <t>base64_encdoed</t>
-  </si>
-  <si>
     <t>mediatype</t>
   </si>
   <si>
     <t>setting_code</t>
   </si>
   <si>
-    <t>testcase</t>
+    <t>other care</t>
   </si>
   <si>
     <t>setting_value</t>
   </si>
   <si>
-    <t>made-up</t>
-  </si>
-  <si>
     <t>setting_terminology</t>
   </si>
   <si>
@@ -282,19 +273,13 @@
   </si>
   <si>
     <t>jpeg_data_encoded_as_base64</t>
-  </si>
-  <si>
-    <t>ISO_3166-1</t>
-  </si>
-  <si>
-    <t>openehr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,23 +322,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -395,7 +372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,27 +404,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -479,24 +438,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -672,21 +613,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1"/>
+    <col min="2" max="2" width="50.7109375" customWidth="1"/>
     <col min="3" max="3" width="100.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -700,289 +640,286 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
       </c>
       <c r="D3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="2">
         <v>345</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2">
         <v>179000</v>
       </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B16" s="2">
-        <v>777</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="B21" s="2">
         <v>433</v>
       </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
+  <dataValidations count="23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C22">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24">
+      <formula1>FLAT_Paths!$A$2:$A$33</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
-          <x14:formula1>
-            <xm:f>FLAT_Paths!$A$2:$A$33</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C24</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="100.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
     <col min="3" max="3" width="100.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,7 +930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1004,7 +941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1015,7 +952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1026,7 +963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1034,7 +971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1042,7 +979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1053,7 +990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1064,7 +1001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1075,7 +1012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1086,7 +1023,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1097,7 +1034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1108,7 +1045,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -1119,7 +1056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1130,7 +1067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -1141,7 +1078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -1149,7 +1086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -1160,7 +1097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
@@ -1171,7 +1108,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -1182,7 +1119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -1193,7 +1130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -1204,7 +1141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -1215,7 +1152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1226,7 +1163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -1237,7 +1174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>33</v>
       </c>
@@ -1248,7 +1185,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1259,7 +1196,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1270,7 +1207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
@@ -1281,7 +1218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -1292,7 +1229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1303,7 +1240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>39</v>
       </c>
@@ -1314,7 +1251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -1325,7 +1262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>41</v>
       </c>
